--- a/Lotação - SECRETARIA ADMINISTRATIVA - 04-09-2025.xlsx
+++ b/Lotação - SECRETARIA ADMINISTRATIVA - 04-09-2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CARGO</t>
+          <t>STATUS_PROVIMENTO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -448,70 +448,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANALISTA JUDICIÁRIO/ JUDICIÁRIA (OFICIAL DE JUSTIÇA AVALIADOR FEDERAL)</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TÉCNICO JUDICIÁRIO/ ADMINISTRATIVA</t>
+          <t>REMOVIDO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TÉCNICO JUDICIÁRIO/ ADMINISTRATIVA (AGENTE DE POLÍCIA JUDICIAL)</t>
+          <t>REQUISITADO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ANALISTA JUDICIÁRIO/ JUDICIÁRIA</t>
+          <t>EXERCÍCIO PROVISÓRIO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ANALISTA JUDICIÁRIO/ ADMINISTRATIVA</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ANALISTA JUDICIÁRIO/ APOIO ESPECIALIZADO (BIBLIOTECONOMIA)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ANALISTA JUDICIÁRIO/ APOIO ESPECIALIZADO (CONTABILIDADE)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
         <v>1</v>
       </c>
     </row>
